--- a/data/trans_orig/Q33-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q33-Edad-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,69</t>
+          <t>7,67</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,68; 7,97</t>
+          <t>7,66; 7,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,51; 7,82</t>
+          <t>7,51; 7,81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,65; 7,86</t>
+          <t>7,64; 7,87</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,19 +811,19 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>7,37</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7,59</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>7,4</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>7,59</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>7,4</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
           <t>7,54</t>
@@ -831,27 +831,27 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>7,27</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7,58</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7,43</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>7,53</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>7,31</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>7,58</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>7,43</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>7,53</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>7,35</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,27; 7,49</t>
+          <t>7,24; 7,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,2; 7,42</t>
+          <t>7,14; 7,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,27; 7,42</t>
+          <t>7,22; 7,39</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,16</t>
+          <t>7,15</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,12</t>
+          <t>7,11</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,14</t>
+          <t>7,13</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,07; 7,26</t>
+          <t>7,07; 7,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,04; 7,19</t>
+          <t>7,03; 7,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,08; 7,2</t>
+          <t>7,07; 7,19</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,17</t>
+          <t>7,57</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,01</t>
+          <t>7,0</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,09</t>
+          <t>7,32</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,0; 7,57</t>
+          <t>6,98; 8,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,94; 7,08</t>
+          <t>6,94; 7,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,0; 7,31</t>
+          <t>6,99; 7,88</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,0</t>
+          <t>6,99</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>6,75</t>
+          <t>6,74</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>6,87</t>
+          <t>6,86</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,91; 7,08</t>
+          <t>6,9; 7,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,67; 6,83</t>
+          <t>6,66; 6,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,82; 6,94</t>
+          <t>6,81; 6,93</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,43</t>
+          <t>7,47</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7,39</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,54</t>
+          <t>7,48</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,96</t>
+          <t>6,94</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>6,96</t>
+          <t>6,9</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,97</t>
+          <t>6,91</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>7,09</t>
+          <t>6,99</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>6,74</t>
+          <t>6,53</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7,16</t>
+          <t>7,17</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>7,15</t>
+          <t>7,1</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>7,29</t>
+          <t>7,22</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>6,83</t>
+          <t>6,69</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,32; 7,56</t>
+          <t>7,33; 7,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,25; 7,55</t>
+          <t>7,14; 7,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,43; 7,65</t>
+          <t>7,33; 7,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,89; 7,04</t>
+          <t>6,84; 7,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,84; 7,08</t>
+          <t>6,75; 7,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,86; 7,08</t>
+          <t>6,76; 7,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,98; 7,2</t>
+          <t>6,85; 7,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,51; 6,86</t>
+          <t>6,16; 6,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,08; 7,24</t>
+          <t>7,07; 7,28</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,05; 7,24</t>
+          <t>6,97; 7,21</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,21; 7,36</t>
+          <t>7,12; 7,33</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,63; 6,91</t>
+          <t>6,36; 6,9</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,54 +1496,54 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,54</t>
+          <t>7,38</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,39</t>
+          <t>7,48</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,47</t>
+          <t>7,62</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>6,99</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>7,02</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>7,03</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>7,19</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>6,83</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>7,16</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
           <t>7,2</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>7,39</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>7,18</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>7,25</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>7,02</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>7,47</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>7,29</t>
-        </is>
-      </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
           <t>7,36</t>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>7,1</t>
+          <t>6,9</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>7,21; 7,56</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>7,28; 7,75</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>7,47; 7,79</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>6,87; 7,11</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>6,85; 7,2</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>6,87; 7,19</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>7,02; 7,34</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>6,73; 6,94</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>7,04; 7,3</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>7,08; 7,35</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>7,23; 7,47</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>6,82; 6,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>7,54</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7,39</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>7,47</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>7,3</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>7,39</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>7,18</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>7,25</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>6,98</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>7,47</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>7,29</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>7,36</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>7,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>7,5; 7,58</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>7,35; 7,44</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>7,43; 7,51</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>7,14; 7,31</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>7,15; 7,78</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>7,35; 7,43</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>7,14; 7,22</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>7,21; 7,29</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>6,9; 7,07</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>6,78; 7,05</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>7,43; 7,49</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>7,26; 7,32</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>7,32; 7,39</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>7,05; 7,15</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>7,04; 7,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_orig/Q33-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q33-Edad-trans_orig.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,95; 8,14</t>
+          <t>7,96; 8,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -749,22 +749,22 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,64; 7,89</t>
+          <t>7,65; 7,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,65; 7,87</t>
+          <t>7,63; 7,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,51; 7,81</t>
+          <t>7,51; 7,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,99; 8,11</t>
+          <t>7,98; 8,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,77; 7,92</t>
+          <t>7,76; 7,91</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,64; 7,87</t>
+          <t>7,63; 7,87</t>
         </is>
       </c>
     </row>
@@ -864,22 +864,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,5; 7,65</t>
+          <t>7,49; 7,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,37; 7,54</t>
+          <t>7,36; 7,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,43; 7,61</t>
+          <t>7,43; 7,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,24; 7,47</t>
+          <t>7,25; 7,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,17 +889,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,31; 7,5</t>
+          <t>7,31; 7,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,45; 7,62</t>
+          <t>7,45; 7,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,14; 7,39</t>
+          <t>7,15; 7,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,37; 7,49</t>
+          <t>7,37; 7,5</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,22; 7,39</t>
+          <t>7,23; 7,41</t>
         </is>
       </c>
     </row>
@@ -1014,17 +1014,17 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,26; 7,41</t>
+          <t>7,25; 7,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,07; 7,25</t>
+          <t>7,07; 7,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,36; 7,5</t>
+          <t>7,35; 7,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,21; 7,37</t>
+          <t>7,2; 7,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,03; 7,18</t>
+          <t>7,04; 7,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,2; 7,32</t>
+          <t>7,19; 7,32</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,25; 7,36</t>
+          <t>7,25; 7,37</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,07; 7,19</t>
+          <t>7,08; 7,2</t>
         </is>
       </c>
     </row>
@@ -1149,12 +1149,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,08; 7,28</t>
+          <t>7,07; 7,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,22; 7,41</t>
+          <t>7,22; 7,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,85; 7,05</t>
+          <t>6,86; 7,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,12 +1179,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,94; 7,07</t>
+          <t>6,93; 7,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,27; 7,42</t>
+          <t>7,28; 7,42</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1194,12 +1194,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,15; 7,28</t>
+          <t>7,14; 7,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,99; 7,88</t>
+          <t>6,99; 8,0</t>
         </is>
       </c>
     </row>
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,27; 7,52</t>
+          <t>7,26; 7,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,1; 7,35</t>
+          <t>7,1; 7,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,2; 7,46</t>
+          <t>7,19; 7,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,02; 7,24</t>
+          <t>7,01; 7,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,69; 6,99</t>
+          <t>6,7; 6,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,75; 7,02</t>
+          <t>6,77; 7,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,22 +1324,22 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,16; 7,34</t>
+          <t>7,17; 7,34</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,93; 7,12</t>
+          <t>6,94; 7,12</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,02; 7,2</t>
+          <t>7,01; 7,19</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,81; 6,93</t>
+          <t>6,81; 6,92</t>
         </is>
       </c>
     </row>
@@ -1424,47 +1424,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,33; 7,61</t>
+          <t>7,32; 7,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,14; 7,5</t>
+          <t>7,13; 7,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,33; 7,62</t>
+          <t>7,32; 7,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,84; 7,04</t>
+          <t>6,84; 7,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,75; 7,03</t>
+          <t>6,76; 7,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,76; 7,07</t>
+          <t>6,76; 7,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,85; 7,13</t>
+          <t>6,84; 7,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,16; 6,84</t>
+          <t>6,2; 6,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,07; 7,28</t>
+          <t>7,06; 7,27</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,12; 7,33</t>
+          <t>7,11; 7,32</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,21; 7,56</t>
+          <t>7,21; 7,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,28; 7,75</t>
+          <t>7,26; 7,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,47; 7,79</t>
+          <t>7,45; 7,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,27 +1584,27 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,85; 7,2</t>
+          <t>6,85; 7,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,87; 7,19</t>
+          <t>6,88; 7,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,02; 7,34</t>
+          <t>7,02; 7,36</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,73; 6,94</t>
+          <t>6,73; 6,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,04; 7,3</t>
+          <t>7,03; 7,29</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -1614,12 +1614,12 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7,23; 7,47</t>
+          <t>7,23; 7,48</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,82; 6,97</t>
+          <t>6,81; 6,97</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,35; 7,44</t>
+          <t>7,34; 7,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,15; 7,78</t>
+          <t>7,15; 7,69</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,14; 7,22</t>
+          <t>7,14; 7,23</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1739,27 +1739,27 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,78; 7,05</t>
+          <t>6,8; 7,05</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7,43; 7,49</t>
+          <t>7,44; 7,49</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7,26; 7,32</t>
+          <t>7,25; 7,31</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>7,32; 7,39</t>
+          <t>7,33; 7,39</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>7,04; 7,36</t>
+          <t>7,04; 7,34</t>
         </is>
       </c>
     </row>
